--- a/Test Script.xlsx
+++ b/Test Script.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="21">
   <si>
     <t xml:space="preserve">Topic</t>
   </si>
@@ -46,16 +46,43 @@
     <t xml:space="preserve">Warm-up questions</t>
   </si>
   <si>
+    <t xml:space="preserve">Would you introduce yourself? </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Establish rapport with participants by asking them some general information questions like "Would you introduce yourself?" and "What is your occupation?" "What type(s) of mobile device(s) do you use?" etc. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">What is your occupation? </t>
+  </si>
+  <si>
+    <t xml:space="preserve">What type of mobile device do you use?</t>
+  </si>
+  <si>
     <t xml:space="preserve">Screen tour</t>
   </si>
   <si>
+    <t xml:space="preserve">Give the participants an overview of what they are looking at and ask general questions. For example, you could ask: What do you think the screen is for? </t>
+  </si>
+  <si>
     <t xml:space="preserve">The tasks</t>
   </si>
   <si>
+    <t xml:space="preserve">Let participants know how you will guide them through the tasks. Give an overview of the tasks they are required to do. Remember, the test is on the navigation and functions offered by the screen. Write down the answers. </t>
+  </si>
+  <si>
     <t xml:space="preserve">Wrap-up questions and feedback</t>
   </si>
   <si>
+    <t xml:space="preserve">After each task, ask a few questions and conduct a rating exercise to elicit more feedback and information about the users' reasoning. </t>
+  </si>
+  <si>
     <t xml:space="preserve">Post-test interview</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Finaly, I would like to ask you are there anything that you feel to be missing in our web page? Thank you very mach for your participation it this test!</t>
+  </si>
+  <si>
+    <t xml:space="preserve">You don't have to ask many questions, but it's essential to have a few prepared. For example, an additional question could be: Was there anything you felt was missing or thought could have been better? Answer any questions the participants may have. Thank the participants.</t>
   </si>
 </sst>
 </file>
@@ -165,7 +192,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="10">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -196,10 +223,6 @@
     </xf>
     <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
@@ -333,10 +356,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:C9"/>
+  <dimension ref="A1:C12"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="130" zoomScaleNormal="130" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B4" activeCellId="0" sqref="B4"/>
+      <selection pane="topLeft" activeCell="A5" activeCellId="0" sqref="5:5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="17.35" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -375,44 +398,80 @@
         <v>6</v>
       </c>
     </row>
-    <row r="4" customFormat="false" ht="66.7" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="4" customFormat="false" ht="30.55" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A4" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="B4" s="8"/>
-      <c r="C4" s="0"/>
-    </row>
-    <row r="5" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="4" t="s">
+      <c r="B4" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="B5" s="9"/>
-    </row>
-    <row r="6" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="4" t="s">
+      <c r="C4" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="B6" s="9"/>
-    </row>
-    <row r="7" customFormat="false" ht="32.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    </row>
+    <row r="5" customFormat="false" ht="17.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A5" s="4"/>
+      <c r="B5" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="C5" s="7"/>
+    </row>
+    <row r="6" customFormat="false" ht="19.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A6" s="4"/>
+      <c r="B6" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C6" s="7"/>
+    </row>
+    <row r="7" customFormat="false" ht="24.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="B7" s="9"/>
-    </row>
-    <row r="8" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>12</v>
+      </c>
+      <c r="B7" s="8"/>
+      <c r="C7" s="7" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="35.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="B8" s="9"/>
-    </row>
-    <row r="9" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="10"/>
-      <c r="B9" s="10"/>
+        <v>14</v>
+      </c>
+      <c r="B8" s="8"/>
+      <c r="C8" s="7" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="31.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="B9" s="8"/>
+      <c r="C9" s="7" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="10" customFormat="false" ht="78.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="B10" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="C10" s="7" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="11" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A11" s="9"/>
+      <c r="B11" s="9"/>
+      <c r="C11" s="7"/>
+    </row>
+    <row r="12" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C12" s="7"/>
     </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="A9:B9"/>
+    <mergeCell ref="A11:B11"/>
   </mergeCells>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>

--- a/Test Script.xlsx
+++ b/Test Script.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="23">
   <si>
     <t xml:space="preserve">Topic</t>
   </si>
@@ -83,6 +83,12 @@
   </si>
   <si>
     <t xml:space="preserve">You don't have to ask many questions, but it's essential to have a few prepared. For example, an additional question could be: Was there anything you felt was missing or thought could have been better? Answer any questions the participants may have. Thank the participants.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Overview</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The Little Lemon restaurant has faced difficulties with the order online feature on their website. The restaurant's menu is too long, requiring endless scrolling. There are no options to order a specific number of dishes. They user has to repeatedly select addition added to the basket. How can this be improved? You already learned how to create grids, draw shapes, and manipulate objects in Figma. In this video, you will learn to describe the concepts of wireframing, and design wireframes using Figma. The purpose of a wireframe is to create a basic structure for each screen and the design before things like branding, colors and images are considered. It provides a way of communicating ideas quickly, which can be refined later. You focus on the user experience, on what they need to accomplish a task. I will use Figma to draw the wireframes so they can be shared with other team members, giving them the opportunity to make comments in the same document. I'll create three wireframes in this exercise. First, let's list Adrian's requirements. They will become content blocks, which will give me a nice skeleton of what content will appear in the wireframe. It will show the Little Lemon brand about and menu categories, prices and a customize order section. It will also show description and photos of dishes, delivery or take-out options, the number of dishes in each order, and an add to order button. Finally, it will show a login, and a pay section, and of course a navigation bar. Now, we have a good idea of what I need to put on my wireframes. I will begin with the mobile version first. In UX, this is a common practice. It's called mobile first design. This is because most users on the web nowadays access websites on their mobile device. I want to make sure that my design works perfectly on a mobile device. In addition, it's easier to solve design problems on a small screen, and then adapt them to a large one. On the first frame, I need the content blocks to contain the navigation bar about Little Lemon, and menu categories, and menu dishes. I select a mobile frame and add a four-column layout grid to the frame. Then, I construct content blocks using rectangles for each block. Next, I move these blocks out of the frame. Then I make the rectangles narrower, but I do not change the text. It gives me a rough outline of all the contents in the wireframe, to use as a reference as I'm designing within the frame. Now, let's focus on the navigation bar. I need to offer users a way to navigate to the home screen. So I add a logo that will take me back to the home screen. I also include a shopping basket as it's an online delivery service. I chose to use a hamburger menu. When tapped, it opens up a pop-up overlay so the user can easily navigate to other pages on the site. For the logo, I draw a rectangle and diagonal lines through it. This is a conventional way to denote an image placeholder. When the basket is tapped, it opens up a pop-up overlay, which allows users to track and alter what they intend to purchase, and an option to checkout. In the about Little Lemon content block, I want to include the Little Lemon name, what city it is in. A brief description of what type of food it offers, a photograph. Adrian wants users to have an option to book a table online. So I put it in this content block as a button. When clicked, the user is brought to another page. Now, let's work on the menu categories. I know they have not been decided yet. However, I represent them as buttons, naming them Cat 1, Cat 2, and so on. Now, I want to add some dishes from the menu. l add them on the bottom. As this is the first screen of the online page, Adrian wants to highlight this week's specials. I need a title, the name of dish, a description, the price, and an image. This section is scrollable vertically to see further items. I need to note that when a dish is clicked, the user is taken to another screen. I repeat this process for all screens in the order online section. In the wireframe, no color or font images are included. It is just a blueprint. All that is important here is the layout and functionality. In this video, you explored the concept of wireframing and how to design wireframes using Figma. You're encouraged to practice it, and perhaps wireframe the desktop version of the Little Lemon website. </t>
   </si>
 </sst>
 </file>
@@ -192,7 +198,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="11">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -231,6 +237,10 @@
     </xf>
     <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
   </cellXfs>
@@ -358,8 +368,8 @@
   </sheetPr>
   <dimension ref="A1:C12"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="130" zoomScaleNormal="130" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A5" activeCellId="0" sqref="5:5"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A6" colorId="64" zoomScale="130" zoomScaleNormal="130" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="C11" activeCellId="0" sqref="C11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="17.35" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -464,10 +474,14 @@
     <row r="11" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="9"/>
       <c r="B11" s="9"/>
-      <c r="C11" s="7"/>
-    </row>
-    <row r="12" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C12" s="7"/>
+      <c r="C11" s="10" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="12" customFormat="false" ht="494.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C12" s="7" t="s">
+        <v>22</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="1">

--- a/Test Script.xlsx
+++ b/Test Script.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="35">
   <si>
     <t xml:space="preserve">Topic</t>
   </si>
@@ -61,19 +61,55 @@
     <t xml:space="preserve">Screen tour</t>
   </si>
   <si>
+    <t xml:space="preserve">What do you think the screen is for?</t>
+  </si>
+  <si>
     <t xml:space="preserve">Give the participants an overview of what they are looking at and ask general questions. For example, you could ask: What do you think the screen is for? </t>
   </si>
   <si>
     <t xml:space="preserve">The tasks</t>
   </si>
   <si>
+    <t xml:space="preserve">1. Change delivery time</t>
+  </si>
+  <si>
     <t xml:space="preserve">Let participants know how you will guide them through the tasks. Give an overview of the tasks they are required to do. Remember, the test is on the navigation and functions offered by the screen. Write down the answers. </t>
   </si>
   <si>
+    <t xml:space="preserve">2. Customaize your order</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3. Add amount to a selected oreder</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4. Go backwards</t>
+  </si>
+  <si>
     <t xml:space="preserve">Wrap-up questions and feedback</t>
   </si>
   <si>
+    <t xml:space="preserve">1.1 Is it cleary visible what is delivery time?</t>
+  </si>
+  <si>
     <t xml:space="preserve">After each task, ask a few questions and conduct a rating exercise to elicit more feedback and information about the users' reasoning. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.2 Can you change the delivery time?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.1 Is it possible to add items to your order?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.2 Can you change the amount of the items added?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.1 Can you make difference between the Greek Salad and item that are added to it?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.1 Is is possible to go backwards</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.2 Do you think that backward button will be better placed outside of the photo?</t>
   </si>
   <si>
     <t xml:space="preserve">Post-test interview</t>
@@ -366,16 +402,16 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:C12"/>
+  <dimension ref="A1:C21"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A6" colorId="64" zoomScale="130" zoomScaleNormal="130" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C11" activeCellId="0" sqref="C11"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="130" zoomScaleNormal="130" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B4" activeCellId="0" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="17.35" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="22.76"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="38.53"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="85.5"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="78.98"/>
     <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="16384" min="4" style="1" width="11.53"/>
   </cols>
@@ -388,7 +424,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" s="6" customFormat="true" ht="63.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="2" s="6" customFormat="true" ht="32.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="3" t="s">
         <v>2</v>
       </c>
@@ -399,7 +435,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="3" s="6" customFormat="true" ht="63.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="3" s="6" customFormat="true" ht="36.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="3"/>
       <c r="B3" s="4" t="s">
         <v>5</v>
@@ -437,55 +473,124 @@
       <c r="A7" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="B7" s="8"/>
+      <c r="B7" s="8" t="s">
+        <v>13</v>
+      </c>
       <c r="C7" s="7" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="8" customFormat="false" ht="35.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="36.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="B8" s="8"/>
+        <v>15</v>
+      </c>
+      <c r="B8" s="8" t="s">
+        <v>16</v>
+      </c>
       <c r="C8" s="7" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="9" customFormat="false" ht="31.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="B9" s="8"/>
-      <c r="C9" s="7" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="10" customFormat="false" ht="78.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="4" t="s">
+    <row r="9" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="4"/>
+      <c r="B9" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="B10" s="4" t="s">
+      <c r="C9" s="7"/>
+    </row>
+    <row r="10" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="4"/>
+      <c r="B10" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="C10" s="7" t="s">
+      <c r="C10" s="7"/>
+    </row>
+    <row r="11" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A11" s="4"/>
+      <c r="B11" s="8" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="11" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="9"/>
-      <c r="B11" s="9"/>
-      <c r="C11" s="10" t="s">
+      <c r="C11" s="7"/>
+    </row>
+    <row r="12" customFormat="false" ht="32.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A12" s="4" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="12" customFormat="false" ht="494.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B12" s="8" t="s">
+        <v>22</v>
+      </c>
       <c r="C12" s="7" t="s">
-        <v>22</v>
+        <v>23</v>
+      </c>
+    </row>
+    <row r="13" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A13" s="4"/>
+      <c r="B13" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="C13" s="7"/>
+    </row>
+    <row r="14" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A14" s="4"/>
+      <c r="B14" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="C14" s="7"/>
+    </row>
+    <row r="15" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A15" s="4"/>
+      <c r="B15" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="C15" s="7"/>
+    </row>
+    <row r="16" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A16" s="4"/>
+      <c r="B16" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="C16" s="7"/>
+    </row>
+    <row r="17" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A17" s="4"/>
+      <c r="B17" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="C17" s="7"/>
+    </row>
+    <row r="18" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A18" s="4"/>
+      <c r="B18" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="C18" s="7"/>
+    </row>
+    <row r="19" customFormat="false" ht="36.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A19" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="B19" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="C19" s="7" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="20" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A20" s="9"/>
+      <c r="B20" s="9"/>
+      <c r="C20" s="10" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="21" customFormat="false" ht="494.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C21" s="7" t="s">
+        <v>34</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="A11:B11"/>
+    <mergeCell ref="A20:B20"/>
   </mergeCells>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
